--- a/data/trans_dic/P19-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P19-Clase-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2750445326484758</v>
+        <v>0.2752710515197204</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.306176326951434</v>
+        <v>0.309441244176283</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3045900422929751</v>
+        <v>0.3039216247419316</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.3315911090173977</v>
+        <v>0.3327285233106138</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.3482162291389934</v>
+        <v>0.3550111099474169</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.3234791240912803</v>
+        <v>0.3257880113846115</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.3640384610548891</v>
+        <v>0.3644119213381937</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.4092900648260292</v>
+        <v>0.4144358042603275</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.3226889576585455</v>
+        <v>0.3192448980907723</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.3241657659461398</v>
+        <v>0.3287846530460527</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.3425580093147103</v>
+        <v>0.3434855324234063</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.3815949665655288</v>
+        <v>0.3835013229740488</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3614747055525427</v>
+        <v>0.3652907164678565</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.4016674258144686</v>
+        <v>0.4051158535737076</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3959917212384709</v>
+        <v>0.3978411725046951</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.4244801144780626</v>
+        <v>0.4176185153831559</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.4659449253397146</v>
+        <v>0.4619025923746226</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.4385225735348713</v>
+        <v>0.4407034900741649</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.47289116849622</v>
+        <v>0.4722859090207537</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.4896432191163583</v>
+        <v>0.4927522482471286</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.39348224969974</v>
+        <v>0.3907016339247185</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.400962908267557</v>
+        <v>0.4055557800547941</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.4162869101285623</v>
+        <v>0.4168029425973189</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.4403666118350384</v>
+        <v>0.4444778738543675</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.4213253947955952</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.4222383280612419</v>
+        <v>0.422238328061242</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.3562259810725876</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2678223724555795</v>
+        <v>0.2609869954987209</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2898781153019379</v>
+        <v>0.2831431885796611</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2729274671422085</v>
+        <v>0.2697818907131337</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2529144841650168</v>
+        <v>0.258151955443654</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.3463991232540248</v>
+        <v>0.351880749949891</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.3569780245340336</v>
+        <v>0.348382809113163</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.3687442351209863</v>
+        <v>0.3711597493286969</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.3832183959044674</v>
+        <v>0.3778309084241235</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.3229069645080656</v>
+        <v>0.3208897861856199</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.324756702404398</v>
+        <v>0.3273220296626092</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.3386945303560195</v>
+        <v>0.3353860150902889</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.3254052200203387</v>
+        <v>0.3263266630809938</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3626846458616517</v>
+        <v>0.3676804915945742</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.384164794812314</v>
+        <v>0.3834347057965885</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3774510543267931</v>
+        <v>0.367624798869822</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.33964637181943</v>
+        <v>0.3423581273842837</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.4512247717203876</v>
+        <v>0.455128551561254</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.4642026770768864</v>
+        <v>0.4689077904971566</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.4723954453733159</v>
+        <v>0.4764599137766448</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.468507573756837</v>
+        <v>0.4648131222101411</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3938984465543472</v>
+        <v>0.3930034916985999</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.400550396158162</v>
+        <v>0.4021199953646734</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.4110830446714746</v>
+        <v>0.4042252222104354</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.3855282104924638</v>
+        <v>0.3870277993386194</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2094103265683153</v>
+        <v>0.2082889584190857</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1822158513540524</v>
+        <v>0.1839173354358677</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.227026816936638</v>
+        <v>0.232063896606835</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.261211995364695</v>
+        <v>0.2600436166561059</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2344726631459489</v>
+        <v>0.2318420137612509</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.3055947298385548</v>
+        <v>0.3046953767186057</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.272969663960046</v>
+        <v>0.2763442969436644</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2611544980640473</v>
+        <v>0.2621110698444487</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2269283661563806</v>
+        <v>0.2277208438858515</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2307240578715261</v>
+        <v>0.2269611088443901</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.2495411038461535</v>
+        <v>0.2540728779096774</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2714860500144491</v>
+        <v>0.2711150982400184</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2803859401117724</v>
+        <v>0.2829236294026214</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2501922674482268</v>
+        <v>0.2489085936238172</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3035071301686775</v>
+        <v>0.306390294757596</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.3460205974051834</v>
+        <v>0.3534186314031032</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3790989000834109</v>
+        <v>0.3754257351461964</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.4195689455546088</v>
+        <v>0.4248450397078217</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.4258078716462818</v>
+        <v>0.4269659016324399</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3790680257292977</v>
+        <v>0.3739727589006874</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2941743785917933</v>
+        <v>0.2932537424218431</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2906087288350374</v>
+        <v>0.2882625987529235</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.321879127649748</v>
+        <v>0.3224617051431916</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.3448929759554052</v>
+        <v>0.3449442700955926</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2006584415424253</v>
+        <v>0.2029068431554458</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1661825914522135</v>
+        <v>0.1679492686046373</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2368881894083541</v>
+        <v>0.2354034785989361</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1887061751434147</v>
+        <v>0.1915883323958099</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.286702835031708</v>
+        <v>0.2890480459971172</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2430151605190914</v>
+        <v>0.2448002590974704</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.3240447297365843</v>
+        <v>0.3232970390594503</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.3166153365345534</v>
+        <v>0.3164044187401737</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2381285758443434</v>
+        <v>0.2387609168185888</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2052895682494699</v>
+        <v>0.2042962486712519</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.2773907828762346</v>
+        <v>0.2791106163848661</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2530525503740498</v>
+        <v>0.2526673108790686</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2510277885281775</v>
+        <v>0.2486230416361823</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2165093305590491</v>
+        <v>0.2136302102054307</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.28806145575375</v>
+        <v>0.2910304535773013</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2432140063325275</v>
+        <v>0.2465679186846672</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3554931032429262</v>
+        <v>0.3590593185962538</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3088933746664373</v>
+        <v>0.3122505085449571</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3883943564696064</v>
+        <v>0.3894931029243697</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.375628216650132</v>
+        <v>0.3734806142164276</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2788800669460941</v>
+        <v>0.2790322222845082</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2446405938449104</v>
+        <v>0.2440163519680391</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.3209988121356332</v>
+        <v>0.322046116731309</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2934304271919638</v>
+        <v>0.2931743229244856</v>
       </c>
     </row>
     <row r="16">
@@ -1241,7 +1241,7 @@
         <v>0.2771425942489331</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.2027857714148825</v>
+        <v>0.2027857714148826</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1459776006964952</v>
+        <v>0.1481118816204894</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1705955331143323</v>
+        <v>0.1701230069333249</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2074724484304708</v>
+        <v>0.2086483902623313</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1314425991335166</v>
+        <v>0.1310954415246267</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2639964673839352</v>
+        <v>0.2673088397552814</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2548351601144426</v>
+        <v>0.2567885130195272</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.273387539652428</v>
+        <v>0.2741573265685102</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2054577834558815</v>
+        <v>0.2049366160960183</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2311266184016799</v>
+        <v>0.2323103556758396</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2301761275315901</v>
+        <v>0.2302539909254054</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.2528075518589401</v>
+        <v>0.2517874956535113</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1844010474252887</v>
+        <v>0.1823836228064364</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2310403873182802</v>
+        <v>0.2317530445443222</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2412815454497022</v>
+        <v>0.2426183716283676</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2742485548853716</v>
+        <v>0.277063085155783</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2043997089467895</v>
+        <v>0.2024944512236092</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3451759142926539</v>
+        <v>0.3432973827325039</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3201508564074019</v>
+        <v>0.3189758119798012</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3415892887381602</v>
+        <v>0.3445669336018435</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2541358810010224</v>
+        <v>0.2527717820438746</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2887859568651108</v>
+        <v>0.290580326410272</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.2796536463854865</v>
+        <v>0.2813564775450137</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.3030125561099767</v>
+        <v>0.2992325654866491</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2246223123880926</v>
+        <v>0.2238593965450633</v>
       </c>
     </row>
     <row r="19">
@@ -1353,7 +1353,7 @@
         <v>0.4166113781614178</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.306668905945463</v>
+        <v>0.3066689059454631</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.2649855909226845</v>
@@ -1377,7 +1377,7 @@
         <v>0.3367000234320609</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.2438784281038717</v>
+        <v>0.2438784281038716</v>
       </c>
     </row>
     <row r="20">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.1930732473199701</v>
+        <v>0.1899973032475725</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.2827250527461752</v>
+        <v>0.2823838948954425</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.3634804954387459</v>
+        <v>0.3556610478617639</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.2197229485803602</v>
+        <v>0.2176344219061409</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2398716734624351</v>
+        <v>0.2427403270676464</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.2399876883849447</v>
+        <v>0.2425257024644375</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.2887319315869241</v>
+        <v>0.285708904919223</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1998722430596417</v>
+        <v>0.1993313332269364</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.2391380227052269</v>
+        <v>0.2398959826297532</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.2591283065533104</v>
+        <v>0.2570833288325472</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.3093296363154221</v>
+        <v>0.3090500583626519</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.2147410675712001</v>
+        <v>0.2113825581610499</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.290511812351277</v>
+        <v>0.2858280632406504</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.4013189092772948</v>
+        <v>0.396866362780628</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.4808669615262862</v>
+        <v>0.4745532799250103</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.4067312946197417</v>
+        <v>0.4031171374774778</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.2870130408118755</v>
+        <v>0.2879762962984903</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.2951806909884991</v>
+        <v>0.2951931803366678</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.3478015009625567</v>
+        <v>0.3481807922164938</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.2567190069073401</v>
+        <v>0.2579745112440633</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.2817300810128509</v>
+        <v>0.2809573130371382</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.3074760245738941</v>
+        <v>0.3059344470902107</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.3632213345436921</v>
+        <v>0.3608034216741227</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.2784973933180162</v>
+        <v>0.277954813288919</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.234778098265528</v>
+        <v>0.2353472647502813</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.230606909521731</v>
+        <v>0.2307001907036328</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2751167437347289</v>
+        <v>0.2734535389232517</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2466989061917195</v>
+        <v>0.2462900766222586</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2967415272262469</v>
+        <v>0.2979862655480003</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.2881401644789852</v>
+        <v>0.2884594008906408</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.3291915788883754</v>
+        <v>0.3283787120985998</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.2976565138874457</v>
+        <v>0.2985015497399594</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.27108130041949</v>
+        <v>0.2701056302999208</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.2652005736885908</v>
+        <v>0.2643824536454498</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.3057610169455504</v>
+        <v>0.3064677148103975</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.2782466865458244</v>
+        <v>0.2774796604454705</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.2652676768633113</v>
+        <v>0.2654796978271912</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2615437213134642</v>
+        <v>0.2617026344071601</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3059210521616128</v>
+        <v>0.3048897868644272</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2808162187519516</v>
+        <v>0.280211475598326</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.3303896853052902</v>
+        <v>0.3300229750977671</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.3201692835672062</v>
+        <v>0.3203186730386339</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.3618884548821255</v>
+        <v>0.3599534570498588</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.3264367629630456</v>
+        <v>0.325805334866993</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.293157025206963</v>
+        <v>0.2930045961581715</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.2869968824105696</v>
+        <v>0.2865054652255278</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.3298165475445061</v>
+        <v>0.3288542095395513</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.3008797058411387</v>
+        <v>0.2991598419577924</v>
       </c>
     </row>
     <row r="25">
@@ -1874,40 +1874,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>130309</v>
+        <v>130417</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>133864</v>
+        <v>135291</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>130697</v>
+        <v>130410</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>180857</v>
+        <v>181477</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>106791</v>
+        <v>108875</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>101719</v>
+        <v>102445</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>126341</v>
+        <v>126471</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>199612</v>
+        <v>202121</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>251845</v>
+        <v>249157</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>243664</v>
+        <v>247136</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>265875</v>
+        <v>266595</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>394235</v>
+        <v>396204</v>
       </c>
     </row>
     <row r="7">
@@ -1918,40 +1918,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>171258</v>
+        <v>173066</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>175613</v>
+        <v>177121</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>169917</v>
+        <v>170710</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>231520</v>
+        <v>227778</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>142896</v>
+        <v>141656</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>137895</v>
+        <v>138581</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>164119</v>
+        <v>163909</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>238800</v>
+        <v>240316</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>307096</v>
+        <v>304926</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>301390</v>
+        <v>304842</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>323100</v>
+        <v>323500</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>454953</v>
+        <v>459201</v>
       </c>
     </row>
     <row r="8">
@@ -2054,40 +2054,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>98273</v>
+        <v>95765</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>121400</v>
+        <v>118580</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>102956</v>
+        <v>101769</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>121513</v>
+        <v>124030</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>128814</v>
+        <v>130852</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>120318</v>
+        <v>117421</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>137274</v>
+        <v>138173</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>160352</v>
+        <v>158098</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>238563</v>
+        <v>237073</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>245465</v>
+        <v>247404</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>253852</v>
+        <v>251372</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>292503</v>
+        <v>293331</v>
       </c>
     </row>
     <row r="11">
@@ -2098,40 +2098,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>133081</v>
+        <v>134914</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>160887</v>
+        <v>160581</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>142385</v>
+        <v>138678</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>163184</v>
+        <v>164487</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>167795</v>
+        <v>169246</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>156458</v>
+        <v>158044</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>175860</v>
+        <v>177373</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>196040</v>
+        <v>194495</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>291012</v>
+        <v>290351</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>302754</v>
+        <v>303940</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>308107</v>
+        <v>302967</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>346547</v>
+        <v>347895</v>
       </c>
     </row>
     <row r="12">
@@ -2234,40 +2234,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>113582</v>
+        <v>112974</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>114231</v>
+        <v>115298</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>118488</v>
+        <v>121117</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>122561</v>
+        <v>122013</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>39340</v>
+        <v>38899</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>79494</v>
+        <v>79260</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>45347</v>
+        <v>45907</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>48789</v>
+        <v>48967</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>161158</v>
+        <v>161721</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>204659</v>
+        <v>201322</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>171693</v>
+        <v>174811</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>178101</v>
+        <v>177858</v>
       </c>
     </row>
     <row r="15">
@@ -2278,40 +2278,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>152078</v>
+        <v>153455</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>156846</v>
+        <v>156041</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>158405</v>
+        <v>159909</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>162354</v>
+        <v>165825</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>63606</v>
+        <v>62990</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>109142</v>
+        <v>110515</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>70736</v>
+        <v>70929</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>70817</v>
+        <v>69865</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>208914</v>
+        <v>208260</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>257779</v>
+        <v>255698</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>221464</v>
+        <v>221865</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>226258</v>
+        <v>226291</v>
       </c>
     </row>
     <row r="16">
@@ -2414,40 +2414,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>248299</v>
+        <v>251081</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>192607</v>
+        <v>194655</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>272336</v>
+        <v>270629</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>212167</v>
+        <v>215408</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>204788</v>
+        <v>206463</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>186309</v>
+        <v>187678</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>267621</v>
+        <v>267003</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>270903</v>
+        <v>270723</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>464757</v>
+        <v>465992</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>395319</v>
+        <v>393407</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>547989</v>
+        <v>551387</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>501031</v>
+        <v>500268</v>
       </c>
     </row>
     <row r="19">
@@ -2458,40 +2458,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>310627</v>
+        <v>307652</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>250936</v>
+        <v>247599</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>331166</v>
+        <v>334580</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>273452</v>
+        <v>277223</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>253923</v>
+        <v>256471</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>236815</v>
+        <v>239389</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>320766</v>
+        <v>321673</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>321396</v>
+        <v>319559</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>544292</v>
+        <v>544589</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>471096</v>
+        <v>469894</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>634138</v>
+        <v>636207</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>580977</v>
+        <v>580470</v>
       </c>
     </row>
     <row r="20">
@@ -2594,40 +2594,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>51173</v>
+        <v>51921</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>87105</v>
+        <v>86864</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>128779</v>
+        <v>129509</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>74193</v>
+        <v>73997</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>150149</v>
+        <v>152032</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>194063</v>
+        <v>195550</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>201827</v>
+        <v>202395</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>168687</v>
+        <v>168259</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>212476</v>
+        <v>213565</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>292811</v>
+        <v>292910</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>343553</v>
+        <v>342167</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>255484</v>
+        <v>252689</v>
       </c>
     </row>
     <row r="23">
@@ -2638,40 +2638,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>80992</v>
+        <v>81242</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>123197</v>
+        <v>123880</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>170228</v>
+        <v>171975</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>115374</v>
+        <v>114298</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>196319</v>
+        <v>195251</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>243802</v>
+        <v>242907</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>252176</v>
+        <v>254374</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>208653</v>
+        <v>207533</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>265483</v>
+        <v>267133</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>355752</v>
+        <v>357919</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>411779</v>
+        <v>406642</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>311210</v>
+        <v>310153</v>
       </c>
     </row>
     <row r="24">
@@ -2774,40 +2774,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>57575</v>
+        <v>56657</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>75454</v>
+        <v>75363</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>104372</v>
+        <v>102126</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>51883</v>
+        <v>51390</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>299320</v>
+        <v>302900</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>266231</v>
+        <v>269046</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>312415</v>
+        <v>309144</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>166400</v>
+        <v>165949</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>369716</v>
+        <v>370888</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>356621</v>
+        <v>353807</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>423525</v>
+        <v>423142</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>229485</v>
+        <v>225896</v>
       </c>
     </row>
     <row r="27">
@@ -2818,40 +2818,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>86631</v>
+        <v>85234</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>107105</v>
+        <v>105916</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>138079</v>
+        <v>136266</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>96041</v>
+        <v>95188</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>358145</v>
+        <v>359347</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>327459</v>
+        <v>327473</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>376330</v>
+        <v>376740</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>213726</v>
+        <v>214772</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>435565</v>
+        <v>434370</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>423159</v>
+        <v>421037</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>497312</v>
+        <v>494001</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>297619</v>
+        <v>297039</v>
       </c>
     </row>
     <row r="28">
@@ -2954,40 +2954,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>767555</v>
+        <v>769416</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>788537</v>
+        <v>788856</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>931469</v>
+        <v>925838</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>843706</v>
+        <v>842308</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>1002155</v>
+        <v>1006359</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>1022656</v>
+        <v>1023789</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>1162572</v>
+        <v>1159701</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>1072200</v>
+        <v>1075244</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>1801736</v>
+        <v>1795251</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>1848066</v>
+        <v>1842364</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>2115046</v>
+        <v>2119935</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>1953882</v>
+        <v>1948496</v>
       </c>
     </row>
     <row r="31">
@@ -2998,40 +2998,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>867234</v>
+        <v>867927</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>894322</v>
+        <v>894865</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>1035764</v>
+        <v>1032272</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>960387</v>
+        <v>958319</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>1115792</v>
+        <v>1114553</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>1136332</v>
+        <v>1136863</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>1278044</v>
+        <v>1271210</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>1175871</v>
+        <v>1173596</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>1948461</v>
+        <v>1947448</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>1999954</v>
+        <v>1996530</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>2281446</v>
+        <v>2274789</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>2112814</v>
+        <v>2100737</v>
       </c>
     </row>
     <row r="32">
